--- a/Source/DK.Web/ReportTemplates/3AB.xlsx
+++ b/Source/DK.Web/ReportTemplates/3AB.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAA865-EB70-41EA-A394-1DF99B9D29EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="852" yWindow="2280" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="__row__">Sheet1!$A$9</definedName>
+    <definedName name="__sum__">Sheet1!$E$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <t xml:space="preserve">BỘ CÔNG AN
@@ -138,9 +140,6 @@
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>&lt;#row.&gt;</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -181,11 +180,38 @@
       <t>Loại tài sản: Đất</t>
     </r>
   </si>
+  <si>
+    <t>&lt;#row.Code&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.No&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.DiaChi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.DienTichKhuonVien&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NguyenGiaKeToan&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GhiChu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.DienTichKhuonVien&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.NguyenGiaKeToan&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,9 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,6 +398,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -694,165 +723,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="24"/>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>6</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Source/DK.Web/ReportTemplates/3AB.xlsx
+++ b/Source/DK.Web/ReportTemplates/3AB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAA865-EB70-41EA-A394-1DF99B9D29EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="2280" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="2280" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,23 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <r>
-      <t xml:space="preserve">BỘ CÔNG AN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>…………………………………
-…………………………………</t>
-    </r>
-  </si>
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -161,9 +143,6 @@
     <t>Giá trị theo sổ kế toán</t>
   </si>
   <si>
-    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số …………../2020/TT-BCA ngày …../…/2020</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">&lt;#title&gt;
 </t>
@@ -207,11 +186,18 @@
   <si>
     <t>&lt;#sum.NguyenGiaKeToan&gt;</t>
   </si>
+  <si>
+    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số 109/2020/TT-BCA ngày 10/10/2020</t>
+  </si>
+  <si>
+    <t>BỘ CÔNG AN
+Viện Khoa Học Hình Sự</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,41 +712,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
       <c r="D1" s="7"/>
       <c r="E1" s="26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
+      <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24"/>
@@ -766,9 +756,9 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -777,34 +767,34 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="17"/>
       <c r="C7" s="25"/>
@@ -813,7 +803,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -836,53 +826,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="8"/>
       <c r="F11" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="13"/>

--- a/Source/DK.Web/ReportTemplates/3AB.xlsx
+++ b/Source/DK.Web/ReportTemplates/3AB.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>&lt;#row.NguyenGiaKeToan&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#row.GhiChu&gt;</t>
   </si>
   <si>
     <t>&lt;#sum.DienTichKhuonVien&gt;</t>
@@ -377,19 +374,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -430,8 +424,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +713,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E9" sqref="E9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,76 +729,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="25"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -830,52 +827,50 @@
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Source/DK.Web/ReportTemplates/3AB.xlsx
+++ b/Source/DK.Web/ReportTemplates/3AB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9235AF-BC22-481A-AA93-8D4BB1F4639E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="2280" windowWidth="23040" windowHeight="12210"/>
+    <workbookView xWindow="1704" yWindow="1512" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,6 +386,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,12 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,98 +710,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -823,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -836,40 +837,40 @@
       <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="29" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="12"/>
     </row>
   </sheetData>
